--- a/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_KRD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_KRD.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: June, 2020        Evaluation Date: June 30, 2020</t>
   </si>
   <si>
-    <t>Printed on: 09/18/20 2:05:51 PM</t>
+    <t>Printed on: 11/12/20 4:47:06 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -3929,37 +3929,37 @@
         <v>18</v>
       </c>
       <c r="B7" s="236">
-        <v>81787.35997186364</v>
+        <v>81787.097485870443</v>
       </c>
       <c r="C7" s="236">
-        <v>0.053143264266437458</v>
+        <v>0.053143079511831136</v>
       </c>
       <c r="D7" s="236">
-        <v>0.37479669252760939</v>
+        <v>0.37480139247859956</v>
       </c>
       <c r="E7" s="236">
-        <v>0.27044674997401374</v>
+        <v>0.2704723470317606</v>
       </c>
       <c r="F7" s="236">
-        <v>0.19319117624224211</v>
+        <v>0.19320304463091884</v>
       </c>
       <c r="G7" s="236">
-        <v>0.079692333295001153</v>
+        <v>0.079657793796434936</v>
       </c>
       <c r="H7" s="236">
-        <v>0.53736857842524111</v>
+        <v>0.5372683221925818</v>
       </c>
       <c r="I7" s="236">
-        <v>0.36140634437671026</v>
+        <v>0.36136497368910736</v>
       </c>
       <c r="J7" s="236">
-        <v>0.058168101985558683</v>
+        <v>0.058163563242063551</v>
       </c>
       <c r="K7" s="236">
-        <v>1.8883848464580755</v>
+        <v>1.8882461750646133</v>
       </c>
       <c r="L7" s="236">
-        <v>-1.658374458500449</v>
+        <v>-1.6583748321812044</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -3970,28 +3970,28 @@
         <v>64346.194452168034</v>
       </c>
       <c r="C8" s="236">
-        <v>0.031324314097989005</v>
+        <v>0.031324314098837069</v>
       </c>
       <c r="D8" s="236">
         <v>0.35231037124517617</v>
       </c>
       <c r="E8" s="236">
-        <v>0.52174101911338389</v>
+        <v>0.52174101911502346</v>
       </c>
       <c r="F8" s="236">
-        <v>0.32647201649507535</v>
+        <v>0.32647201649581037</v>
       </c>
       <c r="G8" s="236">
         <v>0.16377510318038896</v>
       </c>
       <c r="H8" s="236">
-        <v>0.17504952390691791</v>
+        <v>0.17504952390686138</v>
       </c>
       <c r="I8" s="236">
-        <v>0.070972737053746071</v>
+        <v>0.070972737054537591</v>
       </c>
       <c r="J8" s="236">
-        <v>0.021390295341003354</v>
+        <v>0.021390295340211828</v>
       </c>
       <c r="K8" s="236">
         <v>1.661597640418834</v>
@@ -4019,37 +4019,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="236">
-        <v>17441.165519695613</v>
+        <v>17440.903033702398</v>
       </c>
       <c r="C10" s="236">
-        <v>0.13364054575223527</v>
+        <v>0.13364089085000691</v>
       </c>
       <c r="D10" s="236">
-        <v>0.45775612549228539</v>
+        <v>0.4577794139100097</v>
       </c>
       <c r="E10" s="236">
-        <v>-0.65666043724344791</v>
+        <v>-0.65655435579242627</v>
       </c>
       <c r="F10" s="236">
-        <v>-0.29852566767935873</v>
+        <v>-0.29847741259565769</v>
       </c>
       <c r="G10" s="236">
-        <v>-0.2305166521662024</v>
+        <v>-0.23068328980181832</v>
       </c>
       <c r="H10" s="236">
-        <v>1.8740827050951545</v>
+        <v>1.8736326826666305</v>
       </c>
       <c r="I10" s="236">
-        <v>1.4329114196046517</v>
+        <v>1.4327335427237586</v>
       </c>
       <c r="J10" s="236">
-        <v>0.19385352365120617</v>
+        <v>0.19383428180978757</v>
       </c>
       <c r="K10" s="236">
-        <v>2.7250774197029042</v>
+        <v>2.72443972848535</v>
       </c>
       <c r="L10" s="236">
-        <v>-8.3902692955595928</v>
+        <v>-8.3903723630524389</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4176,28 +4176,28 @@
         <v>32</v>
       </c>
       <c r="D40" s="236">
-        <v>9733.9298065854764</v>
+        <v>9733.8082681657434</v>
       </c>
       <c r="E40" s="236">
-        <v>7993.487377006003</v>
+        <v>7993.7735925628513</v>
       </c>
       <c r="F40" s="236">
-        <v>-3822.5413606994011</v>
+        <v>-3821.8662511252551</v>
       </c>
       <c r="G40" s="236">
-        <v>-1044.4211646138256</v>
+        <v>-1044.2366043860022</v>
       </c>
       <c r="H40" s="236">
-        <v>-576.98136190171385</v>
+        <v>-577.38975417405129</v>
       </c>
       <c r="I40" s="236">
-        <v>3292.9778735537043</v>
+        <v>3292.1375249500938</v>
       </c>
       <c r="J40" s="236">
-        <v>1263.6180320205772</v>
+        <v>1263.4421324443085</v>
       </c>
       <c r="K40" s="236">
-        <v>114.22509544554261</v>
+        <v>114.21203648999014</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
@@ -4205,28 +4205,28 @@
         <v>33</v>
       </c>
       <c r="D41" s="236">
-        <v>15.604265254969223</v>
+        <v>15.604070419196017</v>
       </c>
       <c r="E41" s="236">
-        <v>12.801428462567008</v>
+        <v>12.801886831712171</v>
       </c>
       <c r="F41" s="236">
-        <v>-8.4220157502590478</v>
+        <v>-8.42052831482537</v>
       </c>
       <c r="G41" s="236">
-        <v>-5.3573678152396544</v>
+        <v>-5.3564211118808807</v>
       </c>
       <c r="H41" s="236">
-        <v>-6.048993115965648</v>
+        <v>-6.0532746442906546</v>
       </c>
       <c r="I41" s="236">
-        <v>38.001862613334254</v>
+        <v>37.99216476129638</v>
       </c>
       <c r="J41" s="236">
-        <v>26.261814335510433</v>
+        <v>26.25815860894069</v>
       </c>
       <c r="K41" s="236">
-        <v>2.28903826164457</v>
+        <v>2.2887765639081827</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
@@ -4234,7 +4234,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="236">
-        <v>75.130032246561129</v>
+        <v>75.114833114056552</v>
       </c>
       <c r="E42" s="236">
         <v>0</v>
@@ -4307,28 +4307,28 @@
         <v>44</v>
       </c>
       <c r="D46" s="236">
-        <v>17612.469100367438</v>
+        <v>17612.136636559811</v>
       </c>
       <c r="E46" s="236">
-        <v>17521.479248656262</v>
+        <v>17521.169328948672</v>
       </c>
       <c r="F46" s="236">
-        <v>17419.74443729288</v>
+        <v>17419.481951299666</v>
       </c>
       <c r="G46" s="236">
-        <v>16957.958851942167</v>
+        <v>16957.736872809532</v>
       </c>
       <c r="H46" s="236">
-        <v>16168.799393523701</v>
+        <v>16168.61089880478</v>
       </c>
       <c r="I46" s="236">
-        <v>13689.786352604042</v>
+        <v>13689.647844685822</v>
       </c>
       <c r="J46" s="236">
-        <v>10597.973439674461</v>
+        <v>10597.868516520872</v>
       </c>
       <c r="K46" s="236">
-        <v>7699.1130621014909</v>
+        <v>7699.0118826557409</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
@@ -4336,28 +4336,28 @@
         <v>45</v>
       </c>
       <c r="D47" s="236">
-        <v>17976.990837193734</v>
+        <v>17976.599745996908</v>
       </c>
       <c r="E47" s="236">
-        <v>17686.315480355275</v>
+        <v>17685.99112814066</v>
       </c>
       <c r="F47" s="236">
-        <v>17419.74443729288</v>
+        <v>17419.481951299666</v>
       </c>
       <c r="G47" s="236">
-        <v>17175.022248418485</v>
+        <v>17174.817139256029</v>
       </c>
       <c r="H47" s="236">
-        <v>16950.123215811251</v>
+        <v>16949.971342861565</v>
       </c>
       <c r="I47" s="236">
-        <v>16552.6913165906</v>
+        <v>16552.634737124485</v>
       </c>
       <c r="J47" s="236">
-        <v>16214.945872279461</v>
+        <v>16214.971489709873</v>
       </c>
       <c r="K47" s="236">
-        <v>15926.716910897711</v>
+        <v>15926.813486871715</v>
       </c>
     </row>
     <row r="48" hidden="1" ht="15" customHeight="1">
@@ -4378,28 +4378,28 @@
         <v>47</v>
       </c>
       <c r="D49" s="236">
-        <v>2.0696799224970208</v>
+        <v>2.0693861111691154</v>
       </c>
       <c r="E49" s="236">
-        <v>0.94076664053153358</v>
+        <v>0.9407009092690396</v>
       </c>
       <c r="F49" s="236">
         <v>0</v>
       </c>
       <c r="G49" s="236">
-        <v>1.2800089820447842</v>
+        <v>1.2801252199789071</v>
       </c>
       <c r="H49" s="236">
-        <v>4.8322933773332828</v>
+        <v>4.8325762116926514</v>
       </c>
       <c r="I49" s="236">
-        <v>20.912707402785603</v>
+        <v>20.913517461663883</v>
       </c>
       <c r="J49" s="236">
-        <v>53.000438853501578</v>
+        <v>53.002195341757421</v>
       </c>
       <c r="K49" s="236">
-        <v>106.86430738751194</v>
+        <v>106.86828036662064</v>
       </c>
     </row>
     <row r="50" hidden="1" ht="15" customHeight="1">
@@ -4626,37 +4626,37 @@
         <v>55</v>
       </c>
       <c r="B77" s="261">
-        <v>34386.9586267555</v>
+        <v>34386.9586267556</v>
       </c>
       <c r="C77" s="261">
-        <v>0.00818380959498046</v>
+        <v>0.008183809596355774</v>
       </c>
       <c r="D77" s="261">
-        <v>0.42273204048912238</v>
+        <v>0.42273204049049645</v>
       </c>
       <c r="E77" s="261">
-        <v>0.11016142456845984</v>
+        <v>0.11016142456697839</v>
       </c>
       <c r="F77" s="261">
-        <v>0.14827728206043936</v>
+        <v>0.14827728206043891</v>
       </c>
       <c r="G77" s="261">
-        <v>0.044706274560041934</v>
+        <v>0.0447062745600418</v>
       </c>
       <c r="H77" s="261">
-        <v>0.65447733683374876</v>
+        <v>0.65447733683226572</v>
       </c>
       <c r="I77" s="261">
-        <v>0.23554007523072276</v>
+        <v>0.23554007522913512</v>
       </c>
       <c r="J77" s="261">
         <v>0</v>
       </c>
       <c r="K77" s="261">
-        <v>1.5300813504574478</v>
+        <v>1.5300813504589244</v>
       </c>
       <c r="L77" s="261">
-        <v>-3.6728179555438594</v>
+        <v>-3.6728179556327163</v>
       </c>
     </row>
     <row r="78" outlineLevel="2">
@@ -4664,37 +4664,37 @@
         <v>56</v>
       </c>
       <c r="B78" s="261">
-        <v>9092.98577235174</v>
+        <v>9092.98513422915</v>
       </c>
       <c r="C78" s="261">
-        <v>0.055485719115394058</v>
+        <v>0.055485745416674365</v>
       </c>
       <c r="D78" s="261">
-        <v>0.28995998568279258</v>
+        <v>0.28996673307034637</v>
       </c>
       <c r="E78" s="261">
-        <v>0.51337203983962432</v>
+        <v>0.51338761873394279</v>
       </c>
       <c r="F78" s="261">
-        <v>0.52667451363906714</v>
+        <v>0.52668427337705981</v>
       </c>
       <c r="G78" s="261">
-        <v>0.66739076139626541</v>
+        <v>0.667382600068959</v>
       </c>
       <c r="H78" s="261">
-        <v>1.5458322930955584</v>
+        <v>1.5457702293165767</v>
       </c>
       <c r="I78" s="261">
-        <v>1.333487211258426</v>
+        <v>1.33339826127396</v>
       </c>
       <c r="J78" s="261">
-        <v>0.36623639143760517</v>
+        <v>0.36620535541127652</v>
       </c>
       <c r="K78" s="261">
-        <v>5.2980052576130294</v>
+        <v>5.29784743314204</v>
       </c>
       <c r="L78" s="261">
-        <v>-0.43436571283579112</v>
+        <v>-0.43434340696426743</v>
       </c>
     </row>
     <row r="79" outlineLevel="2">
@@ -4702,37 +4702,37 @@
         <v>57</v>
       </c>
       <c r="B79" s="263">
-        <v>9092.98577235174</v>
+        <v>9092.98513422915</v>
       </c>
       <c r="C79" s="263">
-        <v>0.055485719115394058</v>
+        <v>0.055485745416674365</v>
       </c>
       <c r="D79" s="263">
-        <v>0.28995998568279258</v>
+        <v>0.28996673307034637</v>
       </c>
       <c r="E79" s="263">
-        <v>0.51337203983962432</v>
+        <v>0.51338761873394279</v>
       </c>
       <c r="F79" s="263">
-        <v>0.52667451363906714</v>
+        <v>0.52668427337705981</v>
       </c>
       <c r="G79" s="263">
-        <v>0.66739076139626541</v>
+        <v>0.667382600068959</v>
       </c>
       <c r="H79" s="263">
-        <v>1.5458322930955584</v>
+        <v>1.5457702293165767</v>
       </c>
       <c r="I79" s="263">
-        <v>1.333487211258426</v>
+        <v>1.33339826127396</v>
       </c>
       <c r="J79" s="263">
-        <v>0.36623639143760517</v>
+        <v>0.36620535541127652</v>
       </c>
       <c r="K79" s="263">
-        <v>5.2980052576130294</v>
+        <v>5.29784743314204</v>
       </c>
       <c r="L79" s="263">
-        <v>-0.43436571283579112</v>
+        <v>-0.43434340696426743</v>
       </c>
     </row>
     <row r="80" outlineLevel="2">
@@ -4740,37 +4740,37 @@
         <v>58</v>
       </c>
       <c r="B80" s="263">
-        <v>9092.98577235174</v>
+        <v>9092.98513422915</v>
       </c>
       <c r="C80" s="263">
-        <v>0.055485719115394058</v>
+        <v>0.055485745416674365</v>
       </c>
       <c r="D80" s="263">
-        <v>0.28995998568279258</v>
+        <v>0.28996673307034637</v>
       </c>
       <c r="E80" s="263">
-        <v>0.51337203983962432</v>
+        <v>0.51338761873394279</v>
       </c>
       <c r="F80" s="263">
-        <v>0.52667451363906714</v>
+        <v>0.52668427337705981</v>
       </c>
       <c r="G80" s="263">
-        <v>0.66739076139626541</v>
+        <v>0.667382600068959</v>
       </c>
       <c r="H80" s="263">
-        <v>1.5458322930955584</v>
+        <v>1.5457702293165767</v>
       </c>
       <c r="I80" s="263">
-        <v>1.333487211258426</v>
+        <v>1.33339826127396</v>
       </c>
       <c r="J80" s="263">
-        <v>0.36623639143760517</v>
+        <v>0.36620535541127652</v>
       </c>
       <c r="K80" s="263">
-        <v>5.2980052576130294</v>
+        <v>5.29784743314204</v>
       </c>
       <c r="L80" s="263">
-        <v>-0.43436571283579112</v>
+        <v>-0.43434340696426743</v>
       </c>
     </row>
     <row r="81" outlineLevel="1">
@@ -4778,37 +4778,37 @@
         <v>59</v>
       </c>
       <c r="B81" s="263">
-        <v>45421.829261061517</v>
+        <v>45421.828622939036</v>
       </c>
       <c r="C81" s="263">
-        <v>0.018642207128786687</v>
+        <v>0.018642211877587619</v>
       </c>
       <c r="D81" s="263">
-        <v>0.38189999204823882</v>
+        <v>0.38190134409888604</v>
       </c>
       <c r="E81" s="263">
-        <v>0.19439895814763189</v>
+        <v>0.19440207240056906</v>
       </c>
       <c r="F81" s="263">
-        <v>0.24701025520009434</v>
+        <v>0.24701220507078556</v>
       </c>
       <c r="G81" s="263">
-        <v>0.20986243467947885</v>
+        <v>0.20986079443758621</v>
       </c>
       <c r="H81" s="263">
-        <v>0.8743204894666009</v>
+        <v>0.87430805549827406</v>
       </c>
       <c r="I81" s="263">
-        <v>0.62693782042221513</v>
+        <v>0.62692000361869293</v>
       </c>
       <c r="J81" s="263">
-        <v>0.10609954064128824</v>
+        <v>0.10609332389196138</v>
       </c>
       <c r="K81" s="263">
-        <v>2.5878047354853906</v>
+        <v>2.587773102567799</v>
       </c>
       <c r="L81" s="263">
-        <v>-2.8494525505408119</v>
+        <v>-2.8494481191300296</v>
       </c>
     </row>
     <row r="82" outlineLevel="2">
@@ -4825,7 +4825,7 @@
         <v>0.6856345532921706</v>
       </c>
       <c r="E82" s="261">
-        <v>0.520215407512001</v>
+        <v>0.52021540751399709</v>
       </c>
       <c r="F82" s="261">
         <v>0.27827756434270329</v>
@@ -4834,7 +4834,7 @@
         <v>0.030345653084769733</v>
       </c>
       <c r="H82" s="261">
-        <v>0.013623133621294968</v>
+        <v>0.013623133619298912</v>
       </c>
       <c r="I82" s="261">
         <v>0.023078252156779933</v>
@@ -4843,10 +4843,10 @@
         <v>-0.085976400947574319</v>
       </c>
       <c r="K82" s="261">
-        <v>1.5288828845871156</v>
+        <v>1.5288828845870017</v>
       </c>
       <c r="L82" s="261">
-        <v>0.046108089388377321</v>
+        <v>0.046108089308535077</v>
       </c>
     </row>
     <row r="83" outlineLevel="2">
@@ -4863,7 +4863,7 @@
         <v>0.6856345532921706</v>
       </c>
       <c r="E83" s="263">
-        <v>0.520215407512001</v>
+        <v>0.52021540751399709</v>
       </c>
       <c r="F83" s="263">
         <v>0.27827756434270329</v>
@@ -4872,7 +4872,7 @@
         <v>0.030345653084769733</v>
       </c>
       <c r="H83" s="263">
-        <v>0.013623133621294968</v>
+        <v>0.013623133619298912</v>
       </c>
       <c r="I83" s="263">
         <v>0.023078252156779933</v>
@@ -4881,10 +4881,10 @@
         <v>-0.085976400947574319</v>
       </c>
       <c r="K83" s="263">
-        <v>1.5288828845871156</v>
+        <v>1.5288828845870017</v>
       </c>
       <c r="L83" s="263">
-        <v>0.046108089388377321</v>
+        <v>0.046108089308535077</v>
       </c>
     </row>
     <row r="84" outlineLevel="2">
@@ -4895,34 +4895,34 @@
         <v>701.90741546520155</v>
       </c>
       <c r="C84" s="261">
-        <v>0.11159193678562795</v>
+        <v>0.11159193678498007</v>
       </c>
       <c r="D84" s="261">
-        <v>0.41818487018113143</v>
+        <v>0.41818487017967371</v>
       </c>
       <c r="E84" s="261">
-        <v>0.53711537847499458</v>
+        <v>0.53711537847426571</v>
       </c>
       <c r="F84" s="261">
-        <v>0.50977783894884521</v>
+        <v>0.50977783894811635</v>
       </c>
       <c r="G84" s="261">
-        <v>0.17505941447648224</v>
+        <v>0.17505941447567239</v>
       </c>
       <c r="H84" s="261">
         <v>0.080601501530636319</v>
       </c>
       <c r="I84" s="261">
-        <v>-0.081894015306806053</v>
+        <v>-0.081894015305267354</v>
       </c>
       <c r="J84" s="261">
-        <v>-0.016797071089022893</v>
+        <v>-0.016797071088375019</v>
       </c>
       <c r="K84" s="261">
-        <v>1.7336469129834295</v>
+        <v>1.7336469129827816</v>
       </c>
       <c r="L84" s="261">
-        <v>0.076425586266434378</v>
+        <v>0.07642558625347691</v>
       </c>
     </row>
     <row r="85" outlineLevel="2">
@@ -4968,37 +4968,37 @@
         <v>64</v>
       </c>
       <c r="B86" s="261">
-        <v>11770.921885924956</v>
+        <v>11770.66003805422</v>
       </c>
       <c r="C86" s="261">
-        <v>0.15067217208120609</v>
+        <v>0.15067303774947616</v>
       </c>
       <c r="D86" s="261">
-        <v>0.51116301193825742</v>
+        <v>0.51119348554774879</v>
       </c>
       <c r="E86" s="261">
-        <v>0.39489440844543938</v>
+        <v>0.39506301341774763</v>
       </c>
       <c r="F86" s="261">
-        <v>-0.183194230010075</v>
+        <v>-0.18312765829879291</v>
       </c>
       <c r="G86" s="261">
-        <v>-0.46492832170130205</v>
+        <v>-0.46517409443033347</v>
       </c>
       <c r="H86" s="261">
-        <v>0.18447259921463619</v>
+        <v>0.1838161294230857</v>
       </c>
       <c r="I86" s="261">
-        <v>0.10293132513681208</v>
+        <v>0.10270688331754432</v>
       </c>
       <c r="J86" s="261">
-        <v>0.00039335960636888189</v>
+        <v>0.00038452984243234067</v>
       </c>
       <c r="K86" s="261">
-        <v>0.69505305108535542</v>
+        <v>0.69418506824879578</v>
       </c>
       <c r="L86" s="261">
-        <v>-0.6327742729215019</v>
+        <v>-0.63277121902476763</v>
       </c>
     </row>
     <row r="87" outlineLevel="2">
@@ -5044,37 +5044,37 @@
         <v>66</v>
       </c>
       <c r="B88" s="263">
-        <v>11782.361046783783</v>
+        <v>11782.099198913047</v>
       </c>
       <c r="C88" s="263">
-        <v>0.15067774282211147</v>
+        <v>0.15067860777371533</v>
       </c>
       <c r="D88" s="263">
-        <v>0.51084626200475935</v>
+        <v>0.51087669898803334</v>
       </c>
       <c r="E88" s="263">
-        <v>0.39464158778504654</v>
+        <v>0.39481002344125854</v>
       </c>
       <c r="F88" s="263">
-        <v>-0.18296080500329526</v>
+        <v>-0.182894292738353</v>
       </c>
       <c r="G88" s="263">
-        <v>-0.46444813491466652</v>
+        <v>-0.46469365835298992</v>
       </c>
       <c r="H88" s="263">
-        <v>0.18430196788349498</v>
+        <v>0.18364613166190244</v>
       </c>
       <c r="I88" s="263">
-        <v>0.10283118798084884</v>
+        <v>0.1026069618451643</v>
       </c>
       <c r="J88" s="263">
-        <v>0.0003929751267828557</v>
+        <v>0.00038415392705997038</v>
       </c>
       <c r="K88" s="263">
-        <v>0.694932822372649</v>
+        <v>0.6940656795827983</v>
       </c>
       <c r="L88" s="263">
-        <v>-0.63214624251738116</v>
+        <v>-0.63214317762817374</v>
       </c>
     </row>
     <row r="89" outlineLevel="2">
@@ -5082,37 +5082,37 @@
         <v>67</v>
       </c>
       <c r="B89" s="263">
-        <v>11792.981056970415</v>
+        <v>11792.71920909968</v>
       </c>
       <c r="C89" s="263">
-        <v>0.15060649664136414</v>
+        <v>0.15060735923206592</v>
       </c>
       <c r="D89" s="263">
-        <v>0.51071705815332846</v>
+        <v>0.51074746485758793</v>
       </c>
       <c r="E89" s="263">
-        <v>0.39449862861421875</v>
+        <v>0.39466690941030841</v>
       </c>
       <c r="F89" s="263">
-        <v>-0.18269781567557117</v>
+        <v>-0.18263135746921577</v>
       </c>
       <c r="G89" s="263">
-        <v>-0.463984594960905</v>
+        <v>-0.46422988699888496</v>
       </c>
       <c r="H89" s="263">
-        <v>0.18414584382214363</v>
+        <v>0.18349059475160487</v>
       </c>
       <c r="I89" s="263">
-        <v>0.10273858474010891</v>
+        <v>0.1025145584765524</v>
       </c>
       <c r="J89" s="263">
-        <v>0.00039262123825044304</v>
+        <v>0.00038380797465868211</v>
       </c>
       <c r="K89" s="263">
-        <v>0.69506807634040479</v>
+        <v>0.69420171746477721</v>
       </c>
       <c r="L89" s="263">
-        <v>-0.63156620050552159</v>
+        <v>-0.63156312549551008</v>
       </c>
     </row>
     <row r="90" outlineLevel="2">
@@ -5123,7 +5123,7 @@
         <v>1115.9237434399681</v>
       </c>
       <c r="C90" s="261">
-        <v>0.11033493310249189</v>
+        <v>0.11033493310697447</v>
       </c>
       <c r="D90" s="261">
         <v>0.3961745507466905</v>
@@ -5132,7 +5132,7 @@
         <v>0.51224880201741574</v>
       </c>
       <c r="F90" s="261">
-        <v>0.49475280727793958</v>
+        <v>0.49475280728242221</v>
       </c>
       <c r="G90" s="261">
         <v>0.16383364729423597</v>
@@ -5161,10 +5161,10 @@
         <v>856.25687237028285</v>
       </c>
       <c r="C91" s="261">
-        <v>0.11033493310365394</v>
+        <v>0.11033493310305646</v>
       </c>
       <c r="D91" s="261">
-        <v>0.39617455074256475</v>
+        <v>0.39617455074309588</v>
       </c>
       <c r="E91" s="261">
         <v>0.51224880201757761</v>
@@ -5173,22 +5173,22 @@
         <v>0.49475280728236676</v>
       </c>
       <c r="G91" s="261">
-        <v>0.16383364729457536</v>
+        <v>0.16383364729517283</v>
       </c>
       <c r="H91" s="261">
-        <v>0.077614521478280837</v>
+        <v>0.077614521477749748</v>
       </c>
       <c r="I91" s="261">
-        <v>-0.082164311685129443</v>
+        <v>-0.082164311685195834</v>
       </c>
       <c r="J91" s="261">
         <v>-0.016852510883329116</v>
       </c>
       <c r="K91" s="261">
-        <v>1.6559493494568653</v>
+        <v>1.6559493494573965</v>
       </c>
       <c r="L91" s="261">
-        <v>0.073265442993181357</v>
+        <v>0.07326544300380311</v>
       </c>
     </row>
     <row r="92" outlineLevel="2">
@@ -5199,22 +5199,22 @@
         <v>1972.1806158102511</v>
       </c>
       <c r="C92" s="263">
-        <v>0.11033493310308287</v>
+        <v>0.11033493310527338</v>
       </c>
       <c r="D92" s="263">
-        <v>0.39617455074489921</v>
+        <v>0.39617455074518743</v>
       </c>
       <c r="E92" s="263">
         <v>0.51224880201754364</v>
       </c>
       <c r="F92" s="263">
-        <v>0.4947528072798329</v>
+        <v>0.49475280728242693</v>
       </c>
       <c r="G92" s="263">
-        <v>0.16383364729441213</v>
+        <v>0.1638336472946427</v>
       </c>
       <c r="H92" s="263">
-        <v>0.077614521479115364</v>
+        <v>0.077614521478827136</v>
       </c>
       <c r="I92" s="263">
         <v>-0.082164311686253655</v>
@@ -5223,10 +5223,10 @@
         <v>-0.016852510882796795</v>
       </c>
       <c r="K92" s="263">
-        <v>1.6559493494553552</v>
+        <v>1.6559493494555859</v>
       </c>
       <c r="L92" s="263">
-        <v>0.073265442989378773</v>
+        <v>0.07326544299399039</v>
       </c>
     </row>
     <row r="93" outlineLevel="2">
@@ -5234,37 +5234,37 @@
         <v>71</v>
       </c>
       <c r="B93" s="263">
-        <v>14716.250424593551</v>
+        <v>14715.988576722815</v>
       </c>
       <c r="C93" s="263">
-        <v>0.14187710714739926</v>
+        <v>0.14187764306256959</v>
       </c>
       <c r="D93" s="263">
-        <v>0.49391513107406404</v>
+        <v>0.49393919865015046</v>
       </c>
       <c r="E93" s="263">
-        <v>0.4192097220154109</v>
+        <v>0.41934501423273562</v>
       </c>
       <c r="F93" s="263">
-        <v>-0.051076295987949508</v>
+        <v>-0.051020697427191238</v>
       </c>
       <c r="G93" s="263">
-        <v>-0.34099820126364994</v>
+        <v>-0.341192578718341</v>
       </c>
       <c r="H93" s="263">
-        <v>0.16204316018974718</v>
+        <v>0.16151768031436969</v>
       </c>
       <c r="I93" s="263">
-        <v>0.0678039544815972</v>
+        <v>0.0676238084882572</v>
       </c>
       <c r="J93" s="263">
-        <v>-0.0042007795408578958</v>
+        <v>-0.0042079238190304577</v>
       </c>
       <c r="K93" s="263">
-        <v>0.88749404181391056</v>
+        <v>0.88680320541033275</v>
       </c>
       <c r="L93" s="263">
-        <v>-0.49186595650458864</v>
+        <v>-0.49186100658876725</v>
       </c>
     </row>
     <row r="94" outlineLevel="2">
@@ -5313,25 +5313,25 @@
         <v>3860.6488242374007</v>
       </c>
       <c r="C95" s="261">
-        <v>0.035203069594693458</v>
+        <v>0.03520306959457567</v>
       </c>
       <c r="D95" s="261">
-        <v>0.52310556356260984</v>
+        <v>0.52310556356131421</v>
       </c>
       <c r="E95" s="261">
         <v>0.6449194446523131</v>
       </c>
       <c r="F95" s="261">
-        <v>0.60078702715289656</v>
+        <v>0.60078702715413335</v>
       </c>
       <c r="G95" s="261">
         <v>0.23820400403985015</v>
       </c>
       <c r="H95" s="261">
-        <v>0.223449513072632</v>
+        <v>0.22344951307127742</v>
       </c>
       <c r="I95" s="261">
-        <v>0.00895908605509834</v>
+        <v>0.00895908605645293</v>
       </c>
       <c r="J95" s="261">
         <v>0</v>
@@ -5351,10 +5351,10 @@
         <v>2943.456567771701</v>
       </c>
       <c r="C96" s="261">
-        <v>0.10049814862525214</v>
+        <v>0.10049814862362995</v>
       </c>
       <c r="D96" s="261">
-        <v>0.50578678694151613</v>
+        <v>0.50578678694313828</v>
       </c>
       <c r="E96" s="261">
         <v>0.56306779859326939</v>
@@ -5375,10 +5375,10 @@
         <v>0</v>
       </c>
       <c r="K96" s="261">
-        <v>1.4962579545768859</v>
+        <v>1.4962579545785082</v>
       </c>
       <c r="L96" s="261">
-        <v>0.050179735630565193</v>
+        <v>0.050179735663009005</v>
       </c>
     </row>
     <row r="97" outlineLevel="2">
@@ -5427,10 +5427,10 @@
         <v>4297.4353704930772</v>
       </c>
       <c r="C98" s="263">
-        <v>0.10468547720429977</v>
+        <v>0.10468547720324159</v>
       </c>
       <c r="D98" s="263">
-        <v>0.49369050235693235</v>
+        <v>0.49369050235799056</v>
       </c>
       <c r="E98" s="263">
         <v>0.54114072283732018</v>
@@ -5451,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="K98" s="263">
-        <v>1.4385352440938497</v>
+        <v>1.4385352440951196</v>
       </c>
       <c r="L98" s="263">
-        <v>0.0476002951016783</v>
+        <v>0.047600295127074692</v>
       </c>
     </row>
     <row r="99" outlineLevel="2">
@@ -5465,7 +5465,7 @@
         <v>3454.9173038735526</v>
       </c>
       <c r="C99" s="261">
-        <v>0.028400914916281633</v>
+        <v>0.028400914914833778</v>
       </c>
       <c r="D99" s="261">
         <v>0.53255867581895244</v>
@@ -5576,37 +5576,37 @@
         <v>80</v>
       </c>
       <c r="B102" s="263">
-        <v>26457.881789271371</v>
+        <v>26457.619941400637</v>
       </c>
       <c r="C102" s="263">
-        <v>0.10522195163478362</v>
+        <v>0.10522188694411654</v>
       </c>
       <c r="D102" s="263">
-        <v>0.5029516678770275</v>
+        <v>0.502965143933309</v>
       </c>
       <c r="E102" s="263">
-        <v>0.50227639210422448</v>
+        <v>0.5023524650676966</v>
       </c>
       <c r="F102" s="263">
-        <v>0.17314079312053887</v>
+        <v>0.17317393663687461</v>
       </c>
       <c r="G102" s="263">
-        <v>-0.11393618544904852</v>
+        <v>-0.11404205289682515</v>
       </c>
       <c r="H102" s="263">
-        <v>0.16013078458008778</v>
+        <v>0.15983848857544605</v>
       </c>
       <c r="I102" s="263">
-        <v>0.040887934859866554</v>
+        <v>0.040787469501157032</v>
       </c>
       <c r="J102" s="263">
-        <v>-0.0023365333701302082</v>
+        <v>-0.0023404886376674548</v>
       </c>
       <c r="K102" s="263">
-        <v>1.3677380697862787</v>
+        <v>1.3673585726974706</v>
       </c>
       <c r="L102" s="263">
-        <v>-0.23474608592768934</v>
+        <v>-0.23474078804941462</v>
       </c>
     </row>
     <row r="103" outlineLevel="2">
@@ -5766,37 +5766,37 @@
         <v>49</v>
       </c>
       <c r="B107" s="263">
-        <v>81787.35997186364</v>
+        <v>81787.097485870443</v>
       </c>
       <c r="C107" s="263">
-        <v>0.053143264266437458</v>
+        <v>0.053143079511831136</v>
       </c>
       <c r="D107" s="263">
-        <v>0.37479669252760939</v>
+        <v>0.37480139247859956</v>
       </c>
       <c r="E107" s="263">
-        <v>0.27044674997401374</v>
+        <v>0.2704723470317606</v>
       </c>
       <c r="F107" s="263">
-        <v>0.19319117624224211</v>
+        <v>0.19320304463091884</v>
       </c>
       <c r="G107" s="263">
-        <v>0.079692333295001153</v>
+        <v>0.079657793796434936</v>
       </c>
       <c r="H107" s="263">
-        <v>0.53736857842524111</v>
+        <v>0.5372683221925818</v>
       </c>
       <c r="I107" s="263">
-        <v>0.36140634437671026</v>
+        <v>0.36136497368910736</v>
       </c>
       <c r="J107" s="263">
-        <v>0.058168101985558683</v>
+        <v>0.058163563242063551</v>
       </c>
       <c r="K107" s="263">
-        <v>1.8883848464580755</v>
+        <v>1.8882461750646133</v>
       </c>
       <c r="L107" s="263">
-        <v>-1.658374458500449</v>
+        <v>-1.6583748321812044</v>
       </c>
     </row>
     <row r="109">
@@ -5823,16 +5823,16 @@
         <v>23055.1739356099</v>
       </c>
       <c r="C110" s="261">
-        <v>-0.0640637784852471</v>
+        <v>-0.064063778483195777</v>
       </c>
       <c r="D110" s="261">
         <v>0.50322455248012687</v>
       </c>
       <c r="E110" s="261">
-        <v>0.71256667847447</v>
+        <v>0.71256667847880928</v>
       </c>
       <c r="F110" s="261">
-        <v>0.37102535756357125</v>
+        <v>0.37102535756578037</v>
       </c>
       <c r="G110" s="261">
         <v>0.062583583573401158</v>
@@ -5841,10 +5841,10 @@
         <v>0.097293891172307717</v>
       </c>
       <c r="I110" s="261">
-        <v>0.024791239467374847</v>
+        <v>0.024791239469583972</v>
       </c>
       <c r="J110" s="261">
-        <v>0.0021196955089972562</v>
+        <v>0.0021196955067881336</v>
       </c>
       <c r="K110" s="261">
         <v>1.706565806119547</v>
@@ -6013,28 +6013,28 @@
         <v>64066.194452168034</v>
       </c>
       <c r="C115" s="263">
-        <v>0.031461216375741514</v>
+        <v>0.031461216376593285</v>
       </c>
       <c r="D115" s="263">
         <v>0.35385013655810266</v>
       </c>
       <c r="E115" s="263">
-        <v>0.52402127762726858</v>
+        <v>0.52402127762891526</v>
       </c>
       <c r="F115" s="263">
-        <v>0.32789885580401651</v>
+        <v>0.32789885580475475</v>
       </c>
       <c r="G115" s="263">
         <v>0.1644908789383005</v>
       </c>
       <c r="H115" s="263">
-        <v>0.17581457429133759</v>
+        <v>0.17581457429128081</v>
       </c>
       <c r="I115" s="263">
-        <v>0.071282921957734488</v>
+        <v>0.071282921958529477</v>
       </c>
       <c r="J115" s="263">
-        <v>0.021483781191797138</v>
+        <v>0.021483781191002152</v>
       </c>
       <c r="K115" s="263">
         <v>1.6688596191159553</v>
@@ -6127,28 +6127,28 @@
         <v>64346.194452168034</v>
       </c>
       <c r="C118" s="263">
-        <v>0.031324314097989005</v>
+        <v>0.031324314098837069</v>
       </c>
       <c r="D118" s="263">
         <v>0.35231037124517617</v>
       </c>
       <c r="E118" s="263">
-        <v>0.52174101911338389</v>
+        <v>0.52174101911502346</v>
       </c>
       <c r="F118" s="263">
-        <v>0.32647201649507535</v>
+        <v>0.32647201649581037</v>
       </c>
       <c r="G118" s="263">
         <v>0.16377510318038896</v>
       </c>
       <c r="H118" s="263">
-        <v>0.17504952390691791</v>
+        <v>0.17504952390686138</v>
       </c>
       <c r="I118" s="263">
-        <v>0.070972737053746071</v>
+        <v>0.070972737054537591</v>
       </c>
       <c r="J118" s="263">
-        <v>0.021390295341003354</v>
+        <v>0.021390295340211828</v>
       </c>
       <c r="K118" s="263">
         <v>1.661597640418834</v>
@@ -6178,37 +6178,37 @@
         <v>93</v>
       </c>
       <c r="B121" s="263">
-        <v>17441.165519695613</v>
+        <v>17440.903033702398</v>
       </c>
       <c r="C121" s="263">
-        <v>0.13364054575223527</v>
+        <v>0.13364089085000691</v>
       </c>
       <c r="D121" s="263">
-        <v>0.45775612549228539</v>
+        <v>0.4577794139100097</v>
       </c>
       <c r="E121" s="263">
-        <v>-0.65666043724344791</v>
+        <v>-0.65655435579242627</v>
       </c>
       <c r="F121" s="263">
-        <v>-0.29852566767935873</v>
+        <v>-0.29847741259565769</v>
       </c>
       <c r="G121" s="263">
-        <v>-0.2305166521662024</v>
+        <v>-0.23068328980181832</v>
       </c>
       <c r="H121" s="263">
-        <v>1.8740827050951545</v>
+        <v>1.8736326826666305</v>
       </c>
       <c r="I121" s="263">
-        <v>1.4329114196046517</v>
+        <v>1.4327335427237586</v>
       </c>
       <c r="J121" s="263">
-        <v>0.19385352365120617</v>
+        <v>0.19383428180978757</v>
       </c>
       <c r="K121" s="263">
-        <v>2.7250774197029042</v>
+        <v>2.72443972848535</v>
       </c>
       <c r="L121" s="263">
-        <v>-8.3902692955595928</v>
+        <v>-8.3903723630524389</v>
       </c>
     </row>
   </sheetData>
